--- a/perfiles.xlsx
+++ b/perfiles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\APP DE GESTION DEPORTIVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC40E0C-6F1B-4ADC-BAE9-90E3BF0C3191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164054C4-C06E-4793-90C7-A945A832AAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Atleta</t>
   </si>
@@ -68,6 +68,18 @@
   </si>
   <si>
     <t xml:space="preserve">Mayores </t>
+  </si>
+  <si>
+    <t>Dominante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derecha </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Izquierda </t>
+  </si>
+  <si>
+    <t>Ambidiestro</t>
   </si>
 </sst>
 </file>
@@ -441,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,12 +465,13 @@
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,8 +493,11 @@
       <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -500,8 +516,11 @@
       <c r="G2" t="s">
         <v>13</v>
       </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -520,8 +539,11 @@
       <c r="G3" t="s">
         <v>14</v>
       </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -539,6 +561,9 @@
       </c>
       <c r="G4" t="s">
         <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/perfiles.xlsx
+++ b/perfiles.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\APP DE GESTION DEPORTIVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164054C4-C06E-4793-90C7-A945A832AAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE04906-7414-4273-92D3-0E527774487A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="82">
   <si>
     <t>Atleta</t>
   </si>
@@ -28,12 +41,6 @@
     <t>Entrenador</t>
   </si>
   <si>
-    <t>Juan</t>
-  </si>
-  <si>
-    <t>Ana</t>
-  </si>
-  <si>
     <t xml:space="preserve">Edad </t>
   </si>
   <si>
@@ -52,34 +59,226 @@
     <t>kean@gmail.com</t>
   </si>
   <si>
-    <t>Kean22@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">Direccion </t>
   </si>
   <si>
     <t xml:space="preserve">Categoria </t>
   </si>
   <si>
-    <t xml:space="preserve">Junior </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juvenil </t>
-  </si>
-  <si>
     <t xml:space="preserve">Mayores </t>
   </si>
   <si>
     <t>Dominante</t>
   </si>
   <si>
-    <t xml:space="preserve">Derecha </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Izquierda </t>
-  </si>
-  <si>
     <t>Ambidiestro</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>RUU000</t>
+  </si>
+  <si>
+    <t>RUU426</t>
+  </si>
+  <si>
+    <t>Javier Gonzalez</t>
+  </si>
+  <si>
+    <t>RUU427</t>
+  </si>
+  <si>
+    <t>Cesar Quintero</t>
+  </si>
+  <si>
+    <t>RUU428</t>
+  </si>
+  <si>
+    <t>Laura Tique</t>
+  </si>
+  <si>
+    <t>RUU429</t>
+  </si>
+  <si>
+    <t>Karen Vanegas</t>
+  </si>
+  <si>
+    <t>RUU430</t>
+  </si>
+  <si>
+    <t>Leonardo Rivera</t>
+  </si>
+  <si>
+    <t>RUU432</t>
+  </si>
+  <si>
+    <t>Evin Gutierrez</t>
+  </si>
+  <si>
+    <t>RUU433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicolas Correa </t>
+  </si>
+  <si>
+    <t>RUU435</t>
+  </si>
+  <si>
+    <t>Oscar Torralva</t>
+  </si>
+  <si>
+    <t>RUU440</t>
+  </si>
+  <si>
+    <t>Tania Cardenas</t>
+  </si>
+  <si>
+    <t>RUU441</t>
+  </si>
+  <si>
+    <t>Tristan Otero</t>
+  </si>
+  <si>
+    <t>RUU446</t>
+  </si>
+  <si>
+    <t>Gabriela Alvarado</t>
+  </si>
+  <si>
+    <t>RUU443</t>
+  </si>
+  <si>
+    <t>Joel Sanchez</t>
+  </si>
+  <si>
+    <t>RUU447</t>
+  </si>
+  <si>
+    <t>Alejandro Beltran</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>Juvenil</t>
+  </si>
+  <si>
+    <t>Junior</t>
+  </si>
+  <si>
+    <t>60 kg</t>
+  </si>
+  <si>
+    <t>70 kg</t>
+  </si>
+  <si>
+    <t>80 kg</t>
+  </si>
+  <si>
+    <t>75 kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55 kg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">70 kg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">65 kg </t>
+  </si>
+  <si>
+    <t>65 kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 kg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diestro </t>
+  </si>
+  <si>
+    <t>Zurdo</t>
+  </si>
+  <si>
+    <t>javier129gm@gmail.com</t>
+  </si>
+  <si>
+    <t>cesarinkht@hotmail.com</t>
+  </si>
+  <si>
+    <t>tiquelauradaniela9@gmail.com</t>
+  </si>
+  <si>
+    <t>karenvanegas.2016@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hapkidojudo320@gmail.com </t>
+  </si>
+  <si>
+    <t>nicocorrea0805@gmail.com</t>
+  </si>
+  <si>
+    <t>nicolastorralva62@gmail.com</t>
+  </si>
+  <si>
+    <t>fcardenasg96@gmail.com</t>
+  </si>
+  <si>
+    <t>tristanop2008@gmail.com</t>
+  </si>
+  <si>
+    <t>gabalduar@gmail.com</t>
+  </si>
+  <si>
+    <t>matias.sanchez1406@gmail.com</t>
+  </si>
+  <si>
+    <t>criselcamper@gmail.com</t>
+  </si>
+  <si>
+    <t>Diagonal 48 m sur # 5p49</t>
+  </si>
+  <si>
+    <t>Diagonal 48 j sur 1-96</t>
+  </si>
+  <si>
+    <t>cra 5b #48 g 11 sur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carrera 1ra A No. 48 J 0 3 Sur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kr 2 k bis 39b 05 sur </t>
+  </si>
+  <si>
+    <t>CRA 5 #48 G - 04 SUR</t>
+  </si>
+  <si>
+    <t>diagonal 48 j sur #1-96 int 4 casa 39</t>
+  </si>
+  <si>
+    <t>43 bis sur #11 k16</t>
+  </si>
+  <si>
+    <t>Calle 48b sur #5f - 30</t>
+  </si>
+  <si>
+    <t>Calle 50 c sur # 5c-54</t>
+  </si>
+  <si>
+    <t>Estatura</t>
+  </si>
+  <si>
+    <t>Genero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masculino </t>
+  </si>
+  <si>
+    <t>Femenino</t>
   </si>
 </sst>
 </file>
@@ -98,6 +297,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -144,12 +344,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -453,124 +658,549 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F2" s="2">
+        <v>1023966063</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="I2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="2">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1022963849</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="2">
+        <v>49</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2">
+        <v>79815328</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>123565895</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="2">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1021677418</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="2">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1000774725</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="2">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1159713075</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="I7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="2">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1023900647</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="2">
+        <v>17</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1013121391</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="2">
+        <v>16</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1010841874</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="2">
+        <v>29</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1033793163</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="2">
+        <v>17</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1019606649</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="2">
+        <v>17</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1021398524</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="2">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>145478745</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="E14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1016728407</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="2">
+        <v>18</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1028784398</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>235555896</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>19</v>
+      <c r="J15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{0BD8B8EA-A5B8-4996-97A9-C7B925100763}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{76DC8D3A-9519-4379-B3E0-A6CB8D46F289}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{AEF7EA72-59C2-4FEE-8F29-53DD1F4DA4B2}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{AEF7EA72-59C2-4FEE-8F29-53DD1F4DA4B2}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{FA66211F-C151-4182-B55A-B3A5F9AFEF18}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{823B0699-FB55-47D3-8D85-9FFFCA1DA8E6}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{65E95845-B2C6-4851-BB24-7E4A2391190A}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{F069DF80-8479-4EF2-AA99-D8F62D6C5045}"/>
+    <hyperlink ref="G8" r:id="rId6" xr:uid="{A5D0A4C1-267D-416D-8166-10F976A1F353}"/>
+    <hyperlink ref="G9" r:id="rId7" xr:uid="{79BF82A6-4C74-402C-A066-062E12578E2A}"/>
+    <hyperlink ref="G10" r:id="rId8" xr:uid="{7981409B-A1FE-43F2-97D2-AC61DA548232}"/>
+    <hyperlink ref="G11" r:id="rId9" xr:uid="{CDB3FDA3-579F-400E-AEB8-A5B3369F0390}"/>
+    <hyperlink ref="G12" r:id="rId10" xr:uid="{F28AD6C0-A156-4890-B572-A7B1584A9F7B}"/>
+    <hyperlink ref="G13" r:id="rId11" xr:uid="{CDD73F4A-5FE5-4102-A25B-7DD427FEDDDA}"/>
+    <hyperlink ref="G14" r:id="rId12" xr:uid="{F5AB8858-05A0-421A-B973-8A1FA267E971}"/>
+    <hyperlink ref="G15" r:id="rId13" xr:uid="{5949F409-470E-476F-B84F-D8548EA1ABA5}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/perfiles.xlsx
+++ b/perfiles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\APP DE GESTION DEPORTIVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE04906-7414-4273-92D3-0E527774487A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72535BF-167D-408A-B3BC-D43C82748618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -269,9 +269,6 @@
     <t>Calle 50 c sur # 5c-54</t>
   </si>
   <si>
-    <t>Estatura</t>
-  </si>
-  <si>
     <t>Genero</t>
   </si>
   <si>
@@ -279,6 +276,9 @@
   </si>
   <si>
     <t>Femenino</t>
+  </si>
+  <si>
+    <t>Altura_cm</t>
   </si>
 </sst>
 </file>
@@ -661,7 +661,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,6 +676,7 @@
     <col min="9" max="9" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.140625" style="2" customWidth="1"/>
     <col min="11" max="11" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -686,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -713,7 +714,7 @@
         <v>11</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -750,7 +751,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2">
         <v>17</v>
@@ -775,6 +776,9 @@
       </c>
       <c r="K3" s="2" t="s">
         <v>54</v>
+      </c>
+      <c r="L3">
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -785,7 +789,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="2">
         <v>49</v>
@@ -810,6 +814,9 @@
       </c>
       <c r="K4" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="L4">
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -820,7 +827,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" s="2">
         <v>17</v>
@@ -845,6 +852,9 @@
       </c>
       <c r="K5" s="2" t="s">
         <v>54</v>
+      </c>
+      <c r="L5">
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -855,7 +865,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6" s="2">
         <v>24</v>
@@ -880,6 +890,9 @@
       </c>
       <c r="K6" s="2" t="s">
         <v>55</v>
+      </c>
+      <c r="L6">
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -890,7 +903,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D7" s="2">
         <v>15</v>
@@ -911,6 +924,9 @@
       <c r="K7" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="L7">
+        <v>165</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -920,7 +936,7 @@
         <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D8" s="2">
         <v>17</v>
@@ -955,7 +971,7 @@
         <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D9" s="2">
         <v>17</v>
@@ -987,7 +1003,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D10" s="2">
         <v>16</v>
@@ -1022,7 +1038,7 @@
         <v>33</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11" s="2">
         <v>29</v>
@@ -1054,7 +1070,7 @@
         <v>35</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D12" s="2">
         <v>17</v>
@@ -1089,7 +1105,7 @@
         <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D13" s="2">
         <v>17</v>
@@ -1124,7 +1140,7 @@
         <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D14" s="2">
         <v>13</v>
@@ -1159,7 +1175,7 @@
         <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" s="2">
         <v>18</v>
